--- a/test/test_insee/output/Comparaison_CSP.xlsx
+++ b/test/test_insee/output/Comparaison_CSP.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.girot\.1python\mobility_Louise\test\test_insee\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.girot\.1python\mobility\test\test_insee\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693F974-C1D4-4349-96A4-57D2A0F6C671}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87BC59-672A-49D8-A55B-3E06F7DBA1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparaison" sheetId="1" r:id="rId1"/>
-    <sheet name="donnée EMP voyage" sheetId="2" r:id="rId2"/>
+    <sheet name="Comparaison 09" sheetId="4" r:id="rId1"/>
+    <sheet name="Comparaison 18" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>CSP : 1</t>
   </si>
@@ -47,74 +47,75 @@
     <t>CSP : 8</t>
   </si>
   <si>
-    <t>taille d'échantillon python</t>
-  </si>
-  <si>
-    <t>Variation</t>
-  </si>
-  <si>
     <t>dist/trips : weekday</t>
   </si>
   <si>
     <t>Données EMP 2019</t>
   </si>
   <si>
-    <t>trips/day : weekend</t>
-  </si>
-  <si>
-    <t>Dispo uniquement par RBCI</t>
-  </si>
-  <si>
-    <t>dist/trips : weekend</t>
-  </si>
-  <si>
-    <t>Variation (n mobile weekday)</t>
-  </si>
-  <si>
-    <t>trips/day: weekday ( jours ouvrés)</t>
-  </si>
-  <si>
-    <t>trips/day: weekday (jours de semaine mobile)</t>
-  </si>
-  <si>
-    <t>Variation (jours ouvrés)</t>
-  </si>
-  <si>
     <t>trips/day: weekday (jours ouvrés - jours voyage pro)</t>
-  </si>
-  <si>
-    <t>Variation (jours ouvrés - jours voyages "pros")</t>
   </si>
   <si>
     <t xml:space="preserve">Données EMP 2019 </t>
   </si>
   <si>
-    <t>Variation (chaîne de déplacement complète)</t>
+    <t>Variation : dist/ trips weekday</t>
   </si>
   <si>
-    <t>travel_dist/y (chaine complète)</t>
+    <t>trips/day: weekday (jours ouvrés- voyage pro)</t>
   </si>
   <si>
-    <t>travel_dist/y (long_trips)</t>
+    <t>travel dist/y (long trips)</t>
   </si>
   <si>
-    <t>travel_dist/y (long trips ET &gt;80 km)</t>
+    <t>Variation (jours ouvrés -jours voyage pros )</t>
   </si>
   <si>
-    <t>Variation (long trips)</t>
+    <t>Données EMP 2008</t>
   </si>
   <si>
-    <t>Variation  (long trips ET &gt; 80 km)</t>
+    <t>Nbre de voyages</t>
   </si>
   <si>
-    <t>Variation : dist/ trips weekday</t>
+    <t>par pers.</t>
+  </si>
+  <si>
+    <t>référence : table 3-6</t>
+  </si>
+  <si>
+    <t>Données EMP 2009</t>
+  </si>
+  <si>
+    <t>travel dist/y (long trips)p_car</t>
+  </si>
+  <si>
+    <t>travel dist/y (long trips) p_car</t>
+  </si>
+  <si>
+    <t>n_travel_by_csp</t>
+  </si>
+  <si>
+    <t>référence: feuille 7</t>
+  </si>
+  <si>
+    <t>référence: feuille 1</t>
+  </si>
+  <si>
+    <t>dist/trips : weekday (p_car)</t>
+  </si>
+  <si>
+    <t>Variation  2009 dist/ trips weekday (p_car)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,22 +251,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF003366"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,18 +454,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -573,8 +574,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -618,32 +660,40 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="7" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="8" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -673,6 +723,7 @@
     <cellStyle name="Cellule liée" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="10" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8"/>
     <cellStyle name="Neutre" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
@@ -735,17 +786,29 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>%</a:t>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>Variation 2009   ntrips / weekday </a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> Variation : travel dist/year</a:t>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(jours ouvrés -jours voyage pros )</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23396872232536189"/>
+          <c:y val="3.2706968683660631E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -787,11 +850,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$A$21</c:f>
+              <c:f>'Comparaison 09'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Variation (chaîne de déplacement complète)</c:v>
+                  <c:v>Variation (jours ouvrés -jours voyage pros )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -808,163 +871,40 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$B$21:$I$21</c:f>
+              <c:f>'Comparaison 09'!$B$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-0.3</c:v>
+                  <c:v>-4.7477618711052494E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.05</c:v>
+                  <c:v>5.3222910743491392E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>6.9079774352314605E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43</c:v>
+                  <c:v>1.8175847262747347E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43</c:v>
+                  <c:v>-3.2171258762473398E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27</c:v>
+                  <c:v>1.5558490842991102E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>-4.4118415037533221E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46225099031146688</c:v>
+                  <c:v>3.017145353592543E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D82-4453-B08D-AAB2E6B71DCD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variation (long trips)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$B$22:$I$22</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-0.48384886128364391</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16261470015095369</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45753884150489244</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13567310744279371</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28549893424036288</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.30572900403768299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19237352189073809</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1D82-4453-B08D-AAB2E6B71DCD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variation  (long trips ET &gt; 80 km)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$B$23:$I$23</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-0.40543809523809515</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41687825168107584</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.37952366846318886</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12534025613797661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.6832623906705413E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1395168236877362E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12880752615265201</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28196295641194991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1D82-4453-B08D-AAB2E6B71DCD}"/>
+              <c16:uniqueId val="{00000000-8F67-459C-A3DF-414EA81EEBAB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -978,11 +918,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="558019552"/>
-        <c:axId val="558020208"/>
+        <c:axId val="625325352"/>
+        <c:axId val="625332568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="558019552"/>
+        <c:axId val="625325352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +965,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558020208"/>
+        <c:crossAx val="625332568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="558020208"/>
+        <c:axId val="625332568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1024,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="558019552"/>
+        <c:crossAx val="625325352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1096,37 +1036,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1184,27 +1093,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1212,14 +1107,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>% Variation : trips/day weekday</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Variation 2009 travel dist/y (long trips) p_car</a:t>
             </a:r>
-            <a:endParaRPr lang="fr-FR">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1227,8 +1117,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.16134267620217196"/>
-          <c:y val="0"/>
+          <c:x val="0.11281364829396326"/>
+          <c:y val="4.7619047619047616E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1243,27 +1133,13 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1286,11 +1162,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$A$8</c:f>
+              <c:f>'Comparaison 09'!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Variation (n mobile weekday)</c:v>
+                  <c:v>travel dist/y (long trips) p_car</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1307,163 +1183,40 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$B$8:$I$8</c:f>
+              <c:f>'Comparaison 09'!$B$13:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.27173913043478271</c:v>
+                  <c:v>-0.66690619725102485</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18648648648648636</c:v>
+                  <c:v>0.64247036283079884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14242424242424256</c:v>
+                  <c:v>0.15575831305758303</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1081081081080919E-2</c:v>
+                  <c:v>-0.18382233502538081</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11714285714285722</c:v>
+                  <c:v>-9.9372236958443882E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8235294117647189E-2</c:v>
+                  <c:v>7.0253822629969376E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39583333333333348</c:v>
+                  <c:v>-0.32545169244563998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1124985790841182</c:v>
+                  <c:v>-0.22070167176830713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B926-4334-B6C5-8D1536411031}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variation (jours ouvrés - jours voyages "pros")</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$B$9:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.26270903010033275</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1291891891891892</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11853146853146668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.7646107646105236E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3593406593405808E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8631221719455988E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13235576923076686</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.3088028861770415E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B926-4334-B6C5-8D1536411031}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Comparaison!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variation (jours ouvrés)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Comparaison!$B$10:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.22821790685684795</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13385322080974049</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13754461612169089</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9541715628670415E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7092038396385778E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2415717275050131E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16385046113306667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B926-4334-B6C5-8D1536411031}"/>
+              <c16:uniqueId val="{00000000-BD06-4850-9D30-345435CA73E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1477,17 +1230,16 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="562283872"/>
-        <c:axId val="562282232"/>
+        <c:axId val="527877896"/>
+        <c:axId val="527871664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="562283872"/>
+        <c:axId val="527877896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1524,7 +1276,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562282232"/>
+        <c:crossAx val="527871664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1532,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="562282232"/>
+        <c:axId val="527871664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1335,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562283872"/>
+        <c:crossAx val="527877896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1595,39 +1347,15 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1719,11 +1447,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Comparaison!$A$15</c:f>
+              <c:f>'Comparaison 09'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Variation : dist/ trips weekday</c:v>
+                  <c:v>Variation  2009 dist/ trips weekday (p_car)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1740,40 +1468,40 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Comparaison!$B$15:$I$15</c:f>
+              <c:f>'Comparaison 09'!$B$8:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-7.0000000000000007E-2</c:v>
+                  <c:v>7.1792979066139795E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.12569119754234515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>-1.5655674405749997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.02</c:v>
+                  <c:v>7.1708144765999959E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>4.7394991181365809E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.04</c:v>
+                  <c:v>-1.6884724543849483E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.03</c:v>
+                  <c:v>7.3879784904144374E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38390549450753086</c:v>
+                  <c:v>0.3715010298938537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C53F-4249-B283-ADD47F046851}"/>
+              <c16:uniqueId val="{00000000-9FDA-4A36-A248-7386ED87D765}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1787,17 +1515,16 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="595707048"/>
-        <c:axId val="595706064"/>
+        <c:axId val="527860184"/>
+        <c:axId val="527862808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="595707048"/>
+        <c:axId val="527860184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1834,7 +1561,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595706064"/>
+        <c:crossAx val="527862808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1842,7 +1569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="595706064"/>
+        <c:axId val="527862808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1620,952 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="595707048"/>
+        <c:crossAx val="527860184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variation 2018 : dist/ trips weekday</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variation : dist/ trips weekday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparaison 18'!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-3.3311183855375015E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12986653656571567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1928324959923629E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1959383421606988E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10027065183580675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5458575055608677E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.118314328352259E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49356080653731849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80F7-4535-80A8-786BCB29C85F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="625311576"/>
+        <c:axId val="625303704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="625311576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625303704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="625303704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="625311576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2018 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>travel dist/y (long trips)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1974783932794429E-2"/>
+          <c:y val="0.2145498783454988"/>
+          <c:w val="0.84677593479849622"/>
+          <c:h val="0.73192214111922149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel dist/y (long trips)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparaison 18'!$B$12:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.27945964611987584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6733921996528149E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1379622721181546E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.6217071525733222E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.9201910465014569E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.2553852721474249</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.16108598312027311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3877603659034738E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D152-4A44-9E97-AB3E8A3A6E78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="222711136"/>
+        <c:axId val="222697032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="222711136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222697032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="222697032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="222711136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variation 2018 (jours ouvrés -jours voyage pros )</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19065577411410484"/>
+          <c:y val="4.1695621959694229E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variation (jours ouvrés -jours voyage pros )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparaison 18'!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.10928093645484793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0623700623699843E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11493006993006971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1179148737286582E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5934065934065682E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.825791855203529E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13913461538461247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0764754884201588E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C4E-48A1-913E-8CC581BCADB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="483075376"/>
+        <c:axId val="483077016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="483075376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483077016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483077016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483075376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2062,6 +2734,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3571,27 +4363,1536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>147348</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57977</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>516256</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>669401</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63692</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2">
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F2A3FC0-0F50-4858-9C8A-A8AF13F3CDF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23CDD96-8E50-4D5B-ABA9-F17E16B219FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,8 +5900,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17810011" y="2739472"/>
-          <a:ext cx="3669444" cy="533731"/>
+          <a:off x="13594081" y="609600"/>
+          <a:ext cx="3808093" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3636,15 +5937,42 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Pistes</a:t>
+            <a:t>rectifications apportées</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> : la variable la moins englobante est celle considérée ici par la variable EMP présentée.  (voir table ci après)</a:t>
+            <a:t> : </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>pondération annuelle des voyages</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>utilisation du safe_sample</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>sample d'individus "pesés"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>calcul sur 100 individus </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>utilisation de p_car</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3652,27 +5980,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>628979</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33712</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>479107</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>113884</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>49863</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29AD1F9-1B34-4108-A45B-9A84B9BC3757}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB733AF5-6B00-4AF2-86E0-0043219987F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3688,23 +6018,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>214851</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>164492</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>61954</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>48287</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1078777F-3FA4-4FE4-8D6E-08DF54E45A8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C893A8-F98C-4E26-8042-034641199168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3725,22 +6055,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26092</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>51767</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>113887</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{520BE2E6-1A2C-4676-9E16-C94CD47BB20A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAFB05D2-1F36-40D8-BD4B-CDE7C269C753}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3763,92 +6093,217 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>297181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>120673</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>43816</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C91A997-5EF2-4FEB-B9A4-0B39E0ACF15D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0C1B35-0989-4BD4-992C-200ED2976DAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="161925"/>
-          <a:ext cx="10169548" cy="3619500"/>
+          <a:off x="13470256" y="478156"/>
+          <a:ext cx="2775584" cy="1384935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>rectifications apportées</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t> : </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>pondération annuelle des voyages</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>utilisation du safe_sample</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>sample d'individus "pesés"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>calcul sur 1000 individus </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>attention : résultats sans p_car ( résultats avec p _car sur 100 personnes semblait satisfaisant)                                                         </a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>86679</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>27753</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>143065</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558165</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B137E7F0-6EB1-4F76-B98A-F3EFDB5A2DD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6A8673-530E-4F97-9733-753760041850}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7054215" y="47625"/>
-          <a:ext cx="7765863" cy="1362265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18098</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0855120-051C-4898-8CA7-664C35A600A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>634365</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66B621E-467A-4465-8E56-35D73261D7DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4150,20 +6605,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655CE2B7-3B9A-45E2-A730-FF4E14DE1CB0}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="J10" zoomScale="92" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4189,965 +6645,795 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.81008952515579</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.68628018760222</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.6348712327978698</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.8690682195984398</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.7877749216702599</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3.4528988688661699</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.2941158039099201</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.9834745845675701</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="I3" s="7">
+        <f>(2338*3.1+ 11808*3 + 3407*2.8)/(2338+11808+3407)</f>
+        <v>2.9745000854554777</v>
+      </c>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:H4" si="0">B2/B$3 -1</f>
+        <v>-4.7477618711052494E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3222910743491392E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9079774352314605E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8175847262747347E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>-3.2171258762473398E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5558490842991102E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.4118415037533221E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <f>I2/I$3-1</f>
+        <v>3.017145353592543E-3</v>
+      </c>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.8240887471828202</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.720310532228501</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10.6309187164179</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11.0385938910898</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.2744204303327908</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9.5362181719246593</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.73193445130984</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.2138636453465192</v>
+      </c>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>7.9</v>
+      </c>
+      <c r="G7" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7.2</v>
+      </c>
+      <c r="I7" s="7">
+        <f>(2338*6.5+ 11808*6 + 3407*5.6)/(2338+11808+3407)</f>
+        <v>5.9889591522816614</v>
+      </c>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" ref="B8:I8" si="1">B6/B7-1</f>
+        <v>7.1792979066139795E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.12569119754234515</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.5655674405749997E-2</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="1"/>
+        <v>7.1708144765999959E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="1"/>
+        <v>4.7394991181365809E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.6884724543849483E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <f t="shared" si="1"/>
+        <v>7.3879784904144374E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="1"/>
+        <v>0.3715010298938537</v>
+      </c>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>1381.34</v>
+      </c>
+      <c r="C11">
+        <v>13716.27</v>
+      </c>
+      <c r="D11">
+        <v>14250.5</v>
+      </c>
+      <c r="E11">
+        <v>6431.48</v>
+      </c>
+      <c r="F11">
+        <v>4074.44</v>
+      </c>
+      <c r="G11">
+        <v>3499.73</v>
+      </c>
+      <c r="H11">
+        <v>3009.16</v>
+      </c>
+      <c r="I11">
+        <v>3309.68</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4147</v>
+      </c>
+      <c r="C12" s="7">
+        <v>8351</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12330</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7880</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4524</v>
+      </c>
+      <c r="G12" s="7">
+        <v>3270</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4461</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4247</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <f>B11/B12-1</f>
+        <v>-0.66690619725102485</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:I13" si="2">C11/C12-1</f>
+        <v>0.64247036283079884</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.15575831305758303</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.18382233502538081</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.9372236958443882E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0253822629969376E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.32545169244563998</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.22070167176830713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="D19" s="5">
+        <v>3.8565466537648301</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="D20" s="5">
+        <v>13.623216427491499</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>12.1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>15.1967675063529</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="D22" s="5">
+        <v>8.9673868088427007</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5.3024653282433301</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D24" s="5">
+        <v>4.1685520931012396</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="D25" s="5">
+        <v>4.6688328171086697</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <v>250</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="F3" s="12">
-        <v>100</v>
-      </c>
-      <c r="H3" s="12">
-        <v>100</v>
-      </c>
-      <c r="I3" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13">
-        <v>5.85</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="D4" s="13">
-        <v>3.77</v>
-      </c>
-      <c r="E4" s="13">
-        <v>4</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3.91</v>
-      </c>
-      <c r="G4" s="13">
-        <v>3.7</v>
-      </c>
-      <c r="H4" s="13">
-        <v>3.35</v>
-      </c>
-      <c r="I4">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="16">
-        <v>5.8084615384615299</v>
-      </c>
-      <c r="C5" s="16">
-        <v>4.1779999999999999</v>
-      </c>
-      <c r="D5" s="16">
-        <v>3.6911538461538398</v>
-      </c>
-      <c r="E5" s="16">
-        <v>3.9502905982905898</v>
-      </c>
-      <c r="F5" s="16">
-        <v>3.5825769230769202</v>
-      </c>
-      <c r="G5" s="16">
-        <v>3.5313461538461501</v>
-      </c>
-      <c r="H5" s="16">
-        <v>2.7176538461538402</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.78365384615384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5.6498023715415</v>
-      </c>
-      <c r="C6" s="15">
-        <v>4.1952569169960396</v>
-      </c>
-      <c r="D6" s="15">
-        <v>3.7538972332015801</v>
-      </c>
-      <c r="E6" s="15">
-        <v>4.0313043478260804</v>
-      </c>
-      <c r="F6" s="15">
-        <v>3.73482213438735</v>
-      </c>
-      <c r="G6" s="15">
-        <v>3.6122134387351701</v>
-      </c>
-      <c r="H6" s="15">
-        <v>2.7932411067193601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C7">
-        <v>3.7</v>
-      </c>
-      <c r="D7">
-        <v>3.3</v>
-      </c>
-      <c r="E7">
-        <v>3.7</v>
-      </c>
-      <c r="F7">
-        <v>3.5</v>
-      </c>
-      <c r="G7">
-        <v>3.4</v>
-      </c>
-      <c r="H7">
-        <v>2.4</v>
-      </c>
-      <c r="I7" s="1">
-        <f>(3209*3.2+ 11936*2.8 + 2144*2.6)/(3209+11936+2144)</f>
-        <v>2.8494418416334084</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="10">
-        <f>B4/B$7 -1</f>
-        <v>0.27173913043478271</v>
-      </c>
-      <c r="C8" s="10">
-        <f t="shared" ref="C8:H8" si="0">C4/C$7 -1</f>
-        <v>0.18648648648648636</v>
-      </c>
-      <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.14242424242424256</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>8.1081081081080919E-2</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.11714285714285722</v>
-      </c>
-      <c r="G8" s="10">
-        <f t="shared" si="0"/>
-        <v>8.8235294117647189E-2</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="0"/>
-        <v>0.39583333333333348</v>
-      </c>
-      <c r="I8" s="10">
-        <f>I4/I$7-1</f>
-        <v>0.1124985790841182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="11">
-        <f>B5/B$7 -1</f>
-        <v>0.26270903010033275</v>
-      </c>
-      <c r="C9" s="11">
-        <f t="shared" ref="C9:H9" si="1">C5/C7 -1</f>
-        <v>0.1291891891891892</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="1"/>
-        <v>0.11853146853146668</v>
-      </c>
-      <c r="E9" s="11">
-        <f t="shared" si="1"/>
-        <v>6.7646107646105236E-2</v>
-      </c>
-      <c r="F9" s="11">
-        <f t="shared" si="1"/>
-        <v>2.3593406593405808E-2</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="1"/>
-        <v>3.8631221719455988E-2</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>0.13235576923076686</v>
-      </c>
-      <c r="I9" s="10">
-        <f>I5/I$7-1</f>
-        <v>-2.3088028861770415E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10">
-        <f>B6/B$7 -1</f>
-        <v>0.22821790685684795</v>
-      </c>
-      <c r="C10" s="10">
-        <f t="shared" ref="C10:H10" si="2">C6/C$7 -1</f>
-        <v>0.13385322080974049</v>
-      </c>
-      <c r="D10" s="10">
-        <f t="shared" si="2"/>
-        <v>0.13754461612169089</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="2"/>
-        <v>8.9541715628670415E-2</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" si="2"/>
-        <v>6.7092038396385778E-2</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="2"/>
-        <v>6.2415717275050131E-2</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="2"/>
-        <v>0.16385046113306667</v>
-      </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>5.95</v>
-      </c>
-      <c r="C13">
-        <v>11.41</v>
-      </c>
-      <c r="D13">
-        <v>12.63</v>
-      </c>
-      <c r="E13">
-        <v>11.49</v>
-      </c>
-      <c r="F13">
-        <v>9.42</v>
-      </c>
-      <c r="G13">
-        <v>11.1</v>
-      </c>
-      <c r="H13">
-        <v>7.34</v>
-      </c>
-      <c r="I13">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>6.4</v>
-      </c>
-      <c r="C14">
-        <v>10.9</v>
-      </c>
-      <c r="D14">
-        <v>11.8</v>
-      </c>
-      <c r="E14">
-        <v>11.7</v>
-      </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14">
-        <v>11.5</v>
-      </c>
-      <c r="H14">
-        <v>7.1</v>
-      </c>
-      <c r="I14" s="1">
-        <f>(3209*6.7+ 11936*6.2 + 2144*5.8)/(3209+11936+2144)</f>
-        <v>6.2432008791717273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="9">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="D15" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E15" s="9">
-        <v>-0.02</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="G15" s="9">
-        <v>-0.04</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="I15" s="5">
-        <f>I13/I14-1</f>
-        <v>0.38390549450753086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>2694</v>
-      </c>
-      <c r="C17">
-        <v>13869</v>
-      </c>
-      <c r="D17">
-        <v>30596</v>
-      </c>
-      <c r="E17">
-        <v>14829</v>
-      </c>
-      <c r="F17">
-        <v>8841</v>
-      </c>
-      <c r="G17">
-        <v>5641</v>
-      </c>
-      <c r="H17">
-        <v>6694</v>
-      </c>
-      <c r="I17">
-        <v>9268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="17">
-        <v>1994.4079999999999</v>
-      </c>
-      <c r="C18" s="17">
-        <v>16943.946639999998</v>
-      </c>
-      <c r="D18" s="17">
-        <v>27855.024799999999</v>
-      </c>
-      <c r="E18" s="17">
-        <v>11764.4377199999</v>
-      </c>
-      <c r="F18" s="17">
-        <v>7936.6704200000004</v>
-      </c>
-      <c r="G18" s="17">
-        <v>5820.9398999999903</v>
-      </c>
-      <c r="H18" s="17">
-        <v>6155.0321199999898</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>2297.3872000000001</v>
-      </c>
-      <c r="C19">
-        <v>20649.583640000001</v>
-      </c>
-      <c r="D19">
-        <v>26364.076828000001</v>
-      </c>
-      <c r="E19">
-        <v>11657.3997133333</v>
-      </c>
-      <c r="F19">
-        <v>6586.6246199999996</v>
-      </c>
-      <c r="G19">
-        <v>4508.7996599999997</v>
-      </c>
-      <c r="H19">
-        <v>5826.90444999999</v>
-      </c>
-      <c r="I19">
-        <v>8125.3032199999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3864</v>
-      </c>
-      <c r="C20" s="1">
-        <v>14574</v>
-      </c>
-      <c r="D20" s="1">
-        <v>19111</v>
-      </c>
-      <c r="E20" s="1">
-        <v>10359</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6174</v>
-      </c>
-      <c r="G20" s="1">
-        <v>4458</v>
-      </c>
-      <c r="H20" s="1">
-        <v>5162</v>
-      </c>
-      <c r="I20" s="1">
-        <f>(3209*6596+ 11936*6550 + 2144*4773)/(3209+11936+2144)</f>
-        <v>6338.1731736942565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="10">
-        <v>-0.3</v>
-      </c>
-      <c r="C21" s="10">
-        <v>-0.05</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0.27</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="I21" s="5">
-        <f>I17/I$20-1</f>
-        <v>0.46225099031146688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5">
-        <f>B18/B20-1</f>
-        <v>-0.48384886128364391</v>
-      </c>
-      <c r="C22" s="5">
-        <f t="shared" ref="C22:I22" si="3">C18/C20-1</f>
-        <v>0.16261470015095369</v>
-      </c>
-      <c r="D22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.45753884150489244</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.13567310744279371</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.28549893424036288</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.30572900403768299</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.19237352189073809</v>
-      </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5">
-        <f>B19/B20-1</f>
-        <v>-0.40543809523809515</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" ref="C23:H23" si="4">C19/C20-1</f>
-        <v>0.41687825168107584</v>
-      </c>
-      <c r="D23" s="5">
-        <f t="shared" si="4"/>
-        <v>0.37952366846318886</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="4"/>
-        <v>0.12534025613797661</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="4"/>
-        <v>6.6832623906705413E-2</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="4"/>
-        <v>1.1395168236877362E-2</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="4"/>
-        <v>0.12880752615265201</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" ref="I22:I23" si="5">I19/I$20-1</f>
-        <v>0.28196295641194991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="6">
-        <v>2.66</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="6">
-        <v>3.08</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2.77</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1.98</v>
-      </c>
-      <c r="E26" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="F26" s="6">
-        <v>3.17</v>
-      </c>
-      <c r="G26" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="H26" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6">
-        <v>10.56</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="6">
-        <v>8.98</v>
-      </c>
-      <c r="C30" s="6">
-        <v>8.51</v>
-      </c>
-      <c r="D30" s="6">
-        <v>6.27</v>
-      </c>
-      <c r="E30" s="6">
-        <v>9.39</v>
-      </c>
-      <c r="F30" s="6">
-        <v>11.22</v>
-      </c>
-      <c r="G30" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="H30" s="6">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="C26" s="10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5.2333090841899397</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="J11:J12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J11:J12" r:id="rId1" display="référence " xr:uid="{5AB05E05-CB3B-49D9-904D-8198A37FC579}"/>
+    <hyperlink ref="J2:J7" r:id="rId2" display="référence " xr:uid="{96EC5515-8C2F-4198-A140-B7683A8A0880}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D27387-EB91-4065-A3EC-E947CD964524}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+    <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7">
+        <v>5.1026923076923003</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4.0353076923076898</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3.6792692307692301</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3.9263628503279602</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3.6607692307692301</v>
+      </c>
+      <c r="G2" s="7">
+        <v>3.4620769230769199</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2.73392307692307</v>
+      </c>
+      <c r="I2" s="7">
+        <v>2.88011538461538</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="3"/>
+    <row r="3" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C3">
+        <v>3.7</v>
+      </c>
+      <c r="D3">
+        <v>3.3</v>
+      </c>
+      <c r="E3">
+        <v>3.7</v>
+      </c>
+      <c r="F3">
+        <v>3.5</v>
+      </c>
+      <c r="G3">
+        <v>3.4</v>
+      </c>
+      <c r="H3">
+        <v>2.4</v>
+      </c>
+      <c r="I3" s="6">
+        <f>(3209*3.2+ 11936*2.8 + 2144*2.6)/(3209+11936+2144)</f>
+        <v>2.8494418416334084</v>
+      </c>
+      <c r="J3" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="3"/>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:I4" si="0">B2/B$3 -1</f>
+        <v>0.10928093645484793</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>9.0623700623699843E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.11493006993006971</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1179148737286582E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5934065934065682E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.825791855203529E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13913461538461247</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0764754884201588E-2</v>
+      </c>
+      <c r="J4" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>6.1868084233256004</v>
+      </c>
+      <c r="C6" s="7">
+        <v>12.3155452485663</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12.6487542345271</v>
+      </c>
+      <c r="E6" s="7">
+        <v>12.1909247860328</v>
+      </c>
+      <c r="F6" s="7">
+        <v>9.9024358665222607</v>
+      </c>
+      <c r="G6" s="7">
+        <v>11.907773613139501</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7.5344003173130103</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9.3246001404702206</v>
+      </c>
+      <c r="J6" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>6.4</v>
+      </c>
+      <c r="C7">
+        <v>10.9</v>
+      </c>
+      <c r="D7">
+        <v>11.8</v>
+      </c>
+      <c r="E7">
+        <v>11.7</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>11.5</v>
+      </c>
+      <c r="H7">
+        <v>7.1</v>
+      </c>
+      <c r="I7" s="1">
+        <f>(3209*6.7+ 11936*6.2 + 2144*5.8)/(3209+11936+2144)</f>
+        <v>6.2432008791717273</v>
+      </c>
+      <c r="J7" s="14"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <f>B6/B7-1</f>
+        <v>-3.3311183855375015E-2</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:I8" si="1">C6/C7-1</f>
+        <v>0.12986653656571567</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>7.1928324959923629E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1959383421606988E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.10027065183580675</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5458575055608677E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.118314328352259E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.49356080653731849</v>
+      </c>
+      <c r="J8" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2784.1679273927998</v>
+      </c>
+      <c r="C10" s="7">
+        <v>15255.1001791774</v>
+      </c>
+      <c r="D10" s="7">
+        <v>19519.5859698245</v>
+      </c>
+      <c r="E10" s="7">
+        <v>9362.2873560649296</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5685.0074047890002</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3319.4924567667799</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4330.4741551331499</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6869.8039510797098</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3864</v>
+      </c>
+      <c r="C11" s="5">
+        <v>14574</v>
+      </c>
+      <c r="D11" s="5">
+        <v>19111</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10359</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6174</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4458</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5162</v>
+      </c>
+      <c r="I11" s="5">
+        <f>(3209*6596+ 11936*6550 + 2144*4773)/(3209+11936+2144)</f>
+        <v>6338.1731736942565</v>
+      </c>
+      <c r="J11" s="14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:I12" si="2">B10/B11-1</f>
+        <v>-0.27945964611987584</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>4.6733921996528149E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1379622721181546E-2</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.6217071525733222E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.9201910465014569E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.2553852721474249</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.16108598312027311</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="2"/>
+        <v>8.3877603659034738E-2</v>
+      </c>
+      <c r="J12" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="J10:J12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J2:J8" r:id="rId1" display="référence: feuille 7" xr:uid="{0127559A-7101-4CE1-805C-928394CB1E2A}"/>
+    <hyperlink ref="J10:J12" r:id="rId2" display="référence: feuille 1" xr:uid="{6DCF3343-2233-4304-B8CB-20F9A073FD33}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/test/test_insee/output/Comparaison_CSP.xlsx
+++ b/test/test_insee/output/Comparaison_CSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.girot\.1python\mobility\test\test_insee\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC87BC59-672A-49D8-A55B-3E06F7DBA1BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24597A90-DCAA-49BA-AD77-0134359F52DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparaison 09" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>CSP : 1</t>
   </si>
@@ -47,25 +47,13 @@
     <t>CSP : 8</t>
   </si>
   <si>
-    <t>dist/trips : weekday</t>
-  </si>
-  <si>
     <t>Données EMP 2019</t>
-  </si>
-  <si>
-    <t>trips/day: weekday (jours ouvrés - jours voyage pro)</t>
   </si>
   <si>
     <t xml:space="preserve">Données EMP 2019 </t>
   </si>
   <si>
-    <t>Variation : dist/ trips weekday</t>
-  </si>
-  <si>
     <t>trips/day: weekday (jours ouvrés- voyage pro)</t>
-  </si>
-  <si>
-    <t>travel dist/y (long trips)</t>
   </si>
   <si>
     <t>Variation (jours ouvrés -jours voyage pros )</t>
@@ -105,6 +93,30 @@
   </si>
   <si>
     <t>Variation  2009 dist/ trips weekday (p_car)</t>
+  </si>
+  <si>
+    <t>trips/day: weekday (jours ouvrés - jours voyage pro) SDES pop</t>
+  </si>
+  <si>
+    <t>Variation SDES (jours ouvrés -jours voyage pros )</t>
+  </si>
+  <si>
+    <t>dist/trips : weekday INSEE</t>
+  </si>
+  <si>
+    <t>dist/trips : weekday SDES</t>
+  </si>
+  <si>
+    <t>travel dist/y (long trips) INSEE</t>
+  </si>
+  <si>
+    <t>Variation SDES : dist/ trips weekday</t>
+  </si>
+  <si>
+    <t>travel dist/y (long trips) SDES</t>
+  </si>
+  <si>
+    <t>csp</t>
   </si>
 </sst>
 </file>
@@ -662,7 +674,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -692,6 +704,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1710,9 +1724,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Variation 2018 : dist/ trips weekday</a:t>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Variation</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> 2018: ntrips/weekday</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1757,12 +1776,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparaison 18'!$A$8</c:f>
+              <c:f>'Comparaison 18'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variation : dist/ trips weekday</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1776,42 +1792,127 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CSP : 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSP : 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSP : 6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSP :7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSP : 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparaison 18'!$B$8:$I$8</c:f>
+              <c:f>'Comparaison 18'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-3.3311183855375015E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12986653656571567</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1928324959923629E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1959383421606988E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10027065183580675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5458575055608677E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.118314328352259E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49356080653731849</c:v>
-                </c:pt>
+                <c:ptCount val="6"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-80F7-4535-80A8-786BCB29C85F}"/>
+              <c16:uniqueId val="{00000000-B1B6-4F67-8179-F06F1D5BDA77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variation SDES (jours ouvrés -jours voyage pros )</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CSP : 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSP : 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSP : 6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSP :7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSP : 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparaison 18'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1213584058017001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9420597017751255E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2371010761445671E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.151223445416762E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13371024787344998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0495020325399738E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1B6-4F67-8179-F06F1D5BDA77}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1825,11 +1926,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="625311576"/>
-        <c:axId val="625303704"/>
+        <c:axId val="488541904"/>
+        <c:axId val="467678216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="625311576"/>
+        <c:axId val="488541904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +1973,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625303704"/>
+        <c:crossAx val="467678216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1880,7 +1981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625303704"/>
+        <c:axId val="467678216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1931,7 +2032,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625311576"/>
+        <c:crossAx val="488541904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1943,8 +2044,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2014,17 +2153,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Variation</a:t>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Variatio</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 2018 </a:t>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t>n 2018 : dist/trip weekday</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>travel dist/y (long trips)</a:t>
-            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2059,17 +2195,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.1974783932794429E-2"/>
-          <c:y val="0.2145498783454988"/>
-          <c:w val="0.84677593479849622"/>
-          <c:h val="0.73192214111922149"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2082,9 +2208,6 @@
               <c:f>'Comparaison 18'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>travel dist/y (long trips)</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2098,42 +2221,127 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CSP : 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSP : 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSP : 6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSP :7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSP : 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparaison 18'!$B$12:$I$12</c:f>
+              <c:f>'Comparaison 18'!$B$12:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-0.27945964611987584</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.6733921996528149E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.1379622721181546E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.6217071525733222E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.9201910465014569E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.2553852721474249</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.16108598312027311</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3877603659034738E-2</c:v>
-                </c:pt>
+                <c:ptCount val="6"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D152-4A44-9E97-AB3E8A3A6E78}"/>
+              <c16:uniqueId val="{00000000-1CCC-4FAB-852A-4363D306180B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variation SDES : dist/ trips weekday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CSP : 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSP : 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSP : 6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSP :7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSP : 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparaison 18'!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1338240789321468E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.1030740091495543E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3933339211650102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.722256698693041E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.1170495002901357E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2476789225340732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CCC-4FAB-852A-4363D306180B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2147,11 +2355,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="222711136"/>
-        <c:axId val="222697032"/>
+        <c:axId val="492262152"/>
+        <c:axId val="492262480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="222711136"/>
+        <c:axId val="492262152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2402,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222697032"/>
+        <c:crossAx val="492262480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2202,7 +2410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222697032"/>
+        <c:axId val="492262480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2461,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222711136"/>
+        <c:crossAx val="492262152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2265,8 +2473,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2336,20 +2582,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Variation 2018 (jours ouvrés -jours voyage pros )</a:t>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Variation</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> 2018 : travel dist/year </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.19065577411410484"/>
-          <c:y val="4.1695621959694229E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2391,12 +2634,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparaison 18'!$A$4</c:f>
+              <c:f>'Comparaison 18'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variation (jours ouvrés -jours voyage pros )</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2410,42 +2650,127 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CSP : 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSP : 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSP : 6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSP :7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSP : 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparaison 18'!$B$4:$I$4</c:f>
+              <c:f>'Comparaison 18'!$B$18:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.10928093645484793</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0623700623699843E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11493006993006971</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1179148737286582E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5934065934065682E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.825791855203529E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13913461538461247</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0764754884201588E-2</c:v>
-                </c:pt>
+                <c:ptCount val="6"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C4E-48A1-913E-8CC581BCADB5}"/>
+              <c16:uniqueId val="{00000000-9763-4F4D-ADCA-E836504629F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>travel dist/y (long trips) SDES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CSP : 3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSP : 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSP : 6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSP :7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSP : 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparaison 18'!$B$19:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-2.096158245282298E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1719774439955644E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.5003420718676699E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3405120916419886E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.7832294883411581E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.041803199833649E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9763-4F4D-ADCA-E836504629F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2459,11 +2784,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="483075376"/>
-        <c:axId val="483077016"/>
+        <c:axId val="492281504"/>
+        <c:axId val="492283144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="483075376"/>
+        <c:axId val="492281504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +2831,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483077016"/>
+        <c:crossAx val="492283144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2514,7 +2839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="483077016"/>
+        <c:axId val="492283144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2890,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483075376"/>
+        <c:crossAx val="492281504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2577,8 +2902,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -6095,16 +6458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>68581</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>232554</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>297181</xdr:rowOff>
+      <xdr:rowOff>337596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>636606</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>43816</xdr:rowOff>
+      <xdr:rowOff>395468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6119,8 +6482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13470256" y="478156"/>
-          <a:ext cx="2775584" cy="1384935"/>
+          <a:off x="12058022" y="520862"/>
+          <a:ext cx="3567799" cy="1871239"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6155,18 +6518,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>rectifications apportées</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> : </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t>pondération annuelle des voyages</a:t>
+            <a:t>Hypothèses: </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6178,19 +6531,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t>sample d'individus "pesés"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t>calcul sur 1000 individus </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t>attention : résultats sans p_car ( résultats avec p _car sur 100 personnes semblait satisfaisant)                                                         </a:t>
+            <a:t>calcul sur 990 individus  sdes </a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1100"/>
         </a:p>
@@ -6200,23 +6541,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>86679</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>558165</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>611504</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3">
+        <xdr:cNvPr id="5" name="Graphique 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6A8673-530E-4F97-9733-753760041850}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEFD611-2073-4BB8-956B-6C80B7F27158}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6236,23 +6577,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>18098</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29079</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>278885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>659315</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Graphique 5">
+        <xdr:cNvPr id="8" name="Graphique 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0855120-051C-4898-8CA7-664C35A600A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A520EEBB-24BE-4F4E-8265-7AB7EF085AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6272,23 +6613,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>247650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>40066</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>182637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>634365</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>354164</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>46112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Graphique 6">
+        <xdr:cNvPr id="9" name="Graphique 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66B621E-467A-4465-8E56-35D73261D7DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B197C5-4034-4752-BEA4-086B4A9BB04E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6608,7 +6949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655CE2B7-3B9A-45E2-A730-FF4E14DE1CB0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -6647,7 +6988,7 @@
     </row>
     <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>3.81008952515579</v>
@@ -6674,12 +7015,12 @@
         <v>2.9834745845675701</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
@@ -6710,7 +7051,7 @@
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:H4" si="0">B2/B$3 -1</f>
@@ -6751,7 +7092,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1">
         <v>7.8240887471828202</v>
@@ -6781,7 +7122,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7">
         <v>7.3</v>
@@ -6812,7 +7153,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11">
         <f t="shared" ref="B8:I8" si="1">B6/B7-1</f>
@@ -6856,7 +7197,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1381.34</v>
@@ -6886,7 +7227,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7">
         <v>4147</v>
@@ -6916,7 +7257,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2">
         <f>B11/B12-1</f>
@@ -6954,15 +7295,15 @@
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C18" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -7069,147 +7410,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D27387-EB91-4065-A3EC-E947CD964524}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7">
-        <v>5.1026923076923003</v>
-      </c>
-      <c r="C2" s="7">
-        <v>4.0353076923076898</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3.6792692307692301</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3.9263628503279602</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3.6607692307692301</v>
-      </c>
-      <c r="G2" s="7">
-        <v>3.4620769230769199</v>
-      </c>
-      <c r="H2" s="7">
-        <v>2.73392307692307</v>
-      </c>
-      <c r="I2" s="7">
-        <v>2.88011538461538</v>
-      </c>
-      <c r="J2" s="14" t="s">
+    <row r="2" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="B3" s="1">
+        <v>3.7004827391456101</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.8828562089656802</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.6482985376650601</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.50714159714417</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.7209045948962798</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.9078412100937299</v>
+      </c>
+      <c r="H3" s="14"/>
     </row>
-    <row r="3" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3.3</v>
+      </c>
+      <c r="C4">
         <v>3.7</v>
       </c>
-      <c r="D3">
-        <v>3.3</v>
-      </c>
-      <c r="E3">
-        <v>3.7</v>
-      </c>
-      <c r="F3">
+      <c r="D4">
         <v>3.5</v>
       </c>
-      <c r="G3">
+      <c r="E4">
         <v>3.4</v>
       </c>
-      <c r="H3">
+      <c r="F4">
         <v>2.4</v>
       </c>
-      <c r="I3" s="6">
+      <c r="G4" s="6">
         <f>(3209*3.2+ 11936*2.8 + 2144*2.6)/(3209+11936+2144)</f>
         <v>2.8494418416334084</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="H4" s="14"/>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:I4" si="0">B2/B$3 -1</f>
-        <v>0.10928093645484793</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>9.0623700623699843E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.11493006993006971</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>6.1179148737286582E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>4.5934065934065682E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.825791855203529E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.13913461538461247</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0764754884201588E-2</v>
-      </c>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7217,221 +7515,301 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:G6" si="0">B3/B$4 -1</f>
+        <v>0.1213584058017001</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.9420597017751255E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2371010761445671E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.151223445416762E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13371024787344998</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0495020325399738E-2</v>
+      </c>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7">
+        <v>12.6487542345271</v>
+      </c>
+      <c r="C9" s="7">
+        <v>12.1909247860328</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9.9024358665222607</v>
+      </c>
+      <c r="E9" s="7">
+        <v>11.907773613139501</v>
+      </c>
+      <c r="F9" s="7">
+        <v>7.5344003173130103</v>
+      </c>
+      <c r="G9" s="7">
+        <v>9.3246001404702206</v>
+      </c>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11.848779124131401</v>
+      </c>
+      <c r="C10" s="1">
+        <v>11.219940340929501</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.6045999470951493</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10.726940479650301</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.9496894854794</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.7895101460887597</v>
+      </c>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7">
-        <v>6.1868084233256004</v>
-      </c>
-      <c r="C6" s="7">
-        <v>12.3155452485663</v>
-      </c>
-      <c r="D6" s="7">
-        <v>12.6487542345271</v>
-      </c>
-      <c r="E6" s="7">
-        <v>12.1909247860328</v>
-      </c>
-      <c r="F6" s="7">
-        <v>9.9024358665222607</v>
-      </c>
-      <c r="G6" s="7">
-        <v>11.907773613139501</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7.5344003173130103</v>
-      </c>
-      <c r="I6" s="7">
-        <v>9.3246001404702206</v>
-      </c>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B11">
+        <v>11.8</v>
+      </c>
+      <c r="C11">
+        <v>11.7</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6.4</v>
-      </c>
-      <c r="C7">
-        <v>10.9</v>
-      </c>
-      <c r="D7">
-        <v>11.8</v>
-      </c>
-      <c r="E7">
-        <v>11.7</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7">
+      <c r="E11">
         <v>11.5</v>
       </c>
-      <c r="H7">
+      <c r="F11">
         <v>7.1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="G11" s="1">
         <f>(3209*6.7+ 11936*6.2 + 2144*5.8)/(3209+11936+2144)</f>
         <v>6.2432008791717273</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="H11" s="14"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3">
-        <f>B6/B7-1</f>
-        <v>-3.3311183855375015E-2</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" ref="C8:I8" si="1">C6/C7-1</f>
-        <v>0.12986653656571567</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" ref="B13:G13" si="1">B10/B11-1</f>
+        <v>4.1338240789321468E-3</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>7.1928324959923629E-2</v>
-      </c>
-      <c r="E8" s="3">
+        <v>-4.1030740091495543E-2</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>4.1959383421606988E-2</v>
-      </c>
-      <c r="F8" s="3">
+        <v>-4.3933339211650102E-2</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>0.10027065183580675</v>
-      </c>
-      <c r="G8" s="3">
+        <v>-6.722256698693041E-2</v>
+      </c>
+      <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>3.5458575055608677E-2</v>
-      </c>
-      <c r="H8" s="3">
+        <v>-2.1170495002901357E-2</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="1"/>
-        <v>6.118314328352259E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.49356080653731849</v>
-      </c>
-      <c r="J8" s="14"/>
+        <v>0.2476789225340732</v>
+      </c>
+      <c r="H13" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="12"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="12"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2784.1679273927998</v>
-      </c>
-      <c r="C10" s="7">
-        <v>15255.1001791774</v>
-      </c>
-      <c r="D10" s="7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7">
         <v>19519.5859698245</v>
       </c>
-      <c r="E10" s="7">
+      <c r="C15" s="7">
         <v>9362.2873560649296</v>
       </c>
-      <c r="F10" s="7">
+      <c r="D15" s="7">
         <v>5685.0074047890002</v>
       </c>
-      <c r="G10" s="7">
+      <c r="E15" s="7">
         <v>3319.4924567667799</v>
       </c>
-      <c r="H10" s="7">
+      <c r="F15" s="7">
         <v>4330.4741551331499</v>
       </c>
-      <c r="I10" s="7">
+      <c r="G15" s="7">
         <v>6869.8039510797098</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>25</v>
+      <c r="H15" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>3864</v>
-      </c>
-      <c r="C11" s="5">
-        <v>14574</v>
-      </c>
-      <c r="D11" s="5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5">
+        <v>18710.403197744101</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10237.594856576499</v>
+      </c>
+      <c r="D16" s="5">
+        <v>5834.4088804828898</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4562.3400290454001</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4811.8496938118296</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6594.3496598396296</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
         <v>19111</v>
       </c>
-      <c r="E11" s="5">
+      <c r="C17" s="5">
         <v>10359</v>
       </c>
-      <c r="F11" s="5">
+      <c r="D17" s="5">
         <v>6174</v>
       </c>
-      <c r="G11" s="5">
+      <c r="E17" s="5">
         <v>4458</v>
       </c>
-      <c r="H11" s="5">
+      <c r="F17" s="5">
         <v>5162</v>
       </c>
-      <c r="I11" s="5">
+      <c r="G17" s="5">
         <f>(3209*6596+ 11936*6550 + 2144*4773)/(3209+11936+2144)</f>
         <v>6338.1731736942565</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="H17" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" ref="B12:I12" si="2">B10/B11-1</f>
-        <v>-0.27945964611987584</v>
-      </c>
-      <c r="C12" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <f>B16/B17-1</f>
+        <v>-2.096158245282298E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" ref="C19:G19" si="2">C16/C17-1</f>
+        <v>-1.1719774439955644E-2</v>
+      </c>
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
-        <v>4.6733921996528149E-2</v>
-      </c>
-      <c r="D12" s="2">
+        <v>-5.5003420718676699E-2</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="2"/>
-        <v>2.1379622721181546E-2</v>
-      </c>
-      <c r="E12" s="2">
+        <v>2.3405120916419886E-2</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>-9.6217071525733222E-2</v>
-      </c>
-      <c r="F12" s="2">
+        <v>-6.7832294883411581E-2</v>
+      </c>
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
-        <v>-7.9201910465014569E-2</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.2553852721474249</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.16108598312027311</v>
-      </c>
-      <c r="I12" s="2">
-        <f t="shared" si="2"/>
-        <v>8.3877603659034738E-2</v>
-      </c>
-      <c r="J12" s="14"/>
+        <v>4.041803199833649E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J2:J8"/>
-    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="H2:H12"/>
+    <mergeCell ref="H15:H18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J2:J8" r:id="rId1" display="référence: feuille 7" xr:uid="{0127559A-7101-4CE1-805C-928394CB1E2A}"/>
-    <hyperlink ref="J10:J12" r:id="rId2" display="référence: feuille 1" xr:uid="{6DCF3343-2233-4304-B8CB-20F9A073FD33}"/>
+    <hyperlink ref="H2:H12" r:id="rId1" display="référence: feuille 7" xr:uid="{0127559A-7101-4CE1-805C-928394CB1E2A}"/>
+    <hyperlink ref="H15:H18" r:id="rId2" display="référence: feuille 1" xr:uid="{6DCF3343-2233-4304-B8CB-20F9A073FD33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>

--- a/test/test_insee/output/Comparaison_CSP.xlsx
+++ b/test/test_insee/output/Comparaison_CSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.girot\.1python\mobility\test\test_insee\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24597A90-DCAA-49BA-AD77-0134359F52DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D43BAA-9DDD-4418-BE33-D95169E48FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,11 +701,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20 % - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -7014,7 +7014,7 @@
       <c r="I2" s="1">
         <v>2.9834745845675701</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7047,7 +7047,7 @@
         <f>(2338*3.1+ 11808*3 + 3407*2.8)/(2338+11808+3407)</f>
         <v>2.9745000854554777</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -7085,10 +7085,10 @@
         <f>I2/I$3-1</f>
         <v>3.017145353592543E-3</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J5" s="14"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7118,7 +7118,7 @@
       <c r="I6" s="1">
         <v>8.2138636453465192</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7149,7 +7149,7 @@
         <f>(2338*6.5+ 11808*6 + 3407*5.6)/(2338+11808+3407)</f>
         <v>5.9889591522816614</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7223,7 +7223,7 @@
       <c r="I11">
         <v>3309.68</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7253,7 +7253,7 @@
       <c r="I12" s="7">
         <v>4247</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7412,7 +7412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D27387-EB91-4065-A3EC-E947CD964524}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -7454,7 +7454,7 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7480,7 +7480,7 @@
       <c r="G3" s="1">
         <v>2.9078412100937299</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -7505,7 +7505,7 @@
         <f>(3209*3.2+ 11936*2.8 + 2144*2.6)/(3209+11936+2144)</f>
         <v>2.8494418416334084</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -7515,7 +7515,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -7545,7 +7545,7 @@
         <f t="shared" si="0"/>
         <v>2.0495020325399738E-2</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7555,7 +7555,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="14"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
@@ -7565,7 +7565,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7589,7 +7589,7 @@
       <c r="G9" s="7">
         <v>9.3246001404702206</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7613,7 +7613,7 @@
       <c r="G10" s="1">
         <v>7.7895101460887597</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7638,7 +7638,7 @@
         <f>(3209*6.7+ 11936*6.2 + 2144*5.8)/(3209+11936+2144)</f>
         <v>6.2432008791717273</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
@@ -7647,7 +7647,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="14"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7680,13 +7680,13 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -7711,7 +7711,7 @@
       <c r="G15" s="7">
         <v>6869.8039510797098</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       <c r="G16" s="5">
         <v>6594.3496598396296</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -7762,7 +7762,7 @@
         <f>(3209*6596+ 11936*6550 + 2144*4773)/(3209+11936+2144)</f>
         <v>6338.1731736942565</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
@@ -7771,7 +7771,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">

--- a/test/test_insee/output/Comparaison_CSP.xlsx
+++ b/test/test_insee/output/Comparaison_CSP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.girot\.1python\mobility\test\test_insee\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D43BAA-9DDD-4418-BE33-D95169E48FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5AFA86-5A49-414E-B7FE-203118D89D23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparaison 09" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>CSP : 1</t>
   </si>
@@ -62,25 +62,7 @@
     <t>Données EMP 2008</t>
   </si>
   <si>
-    <t>Nbre de voyages</t>
-  </si>
-  <si>
-    <t>par pers.</t>
-  </si>
-  <si>
     <t>référence : table 3-6</t>
-  </si>
-  <si>
-    <t>Données EMP 2009</t>
-  </si>
-  <si>
-    <t>travel dist/y (long trips)p_car</t>
-  </si>
-  <si>
-    <t>travel dist/y (long trips) p_car</t>
-  </si>
-  <si>
-    <t>n_travel_by_csp</t>
   </si>
   <si>
     <t>référence: feuille 7</t>
@@ -118,6 +100,12 @@
   <si>
     <t>csp</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Variation travel dist/y (long trips) SDES</t>
+  </si>
+  <si>
+    <t>taille individu (si modifié)</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +115,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,12 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -276,15 +258,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF003366"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,14 +439,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -586,47 +555,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -672,9 +600,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -685,15 +613,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,7 +622,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,324 +1021,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Variation 2009 travel dist/y (long trips) p_car</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11281364829396326"/>
-          <c:y val="4.7619047619047616E-2"/>
+          <c:x val="1.4011981686145797E-3"/>
+          <c:y val="9.4339622641509441E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparaison 09'!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>travel dist/y (long trips) p_car</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparaison 09'!$B$13:$I$13</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-0.66690619725102485</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.64247036283079884</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15575831305758303</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.18382233502538081</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.9372236958443882E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0253822629969376E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.32545169244563998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.22070167176830713</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD06-4850-9D30-345435CA73E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="527877896"/>
-        <c:axId val="527871664"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="527877896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="527871664"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="527871664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="527877896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1690,7 +1299,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1705,36 +1314,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Variation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> 2018: ntrips/weekday</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1776,9 +1355,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparaison 18'!$A$5</c:f>
+              <c:f>'Comparaison 18'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variation SDES (jours ouvrés -jours voyage pros )</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1794,25 +1376,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
+              <c:f>'Comparaison 18'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>CSP : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>CSP : 3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>CSP : 4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>CSP : 5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CSP : 6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>CSP :7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>CSP : 8</c:v>
                 </c:pt>
               </c:strCache>
@@ -1820,99 +1408,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparaison 18'!$B$5:$G$5</c:f>
+              <c:f>'Comparaison 18'!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.12178376596659146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5782522958521401E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1213584058017001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9420597017751255E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2371010761445671E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.151223445416762E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13371024787344998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0495020325399738E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1B6-4F67-8179-F06F1D5BDA77}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparaison 18'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variation SDES (jours ouvrés -jours voyage pros )</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CSP : 3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CSP : 4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CSP : 5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSP : 6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CSP :7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSP : 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparaison 18'!$B$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.1213584058017001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9420597017751255E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2371010761445671E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.151223445416762E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13371024787344998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0495020325399738E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B1B6-4F67-8179-F06F1D5BDA77}"/>
+              <c16:uniqueId val="{00000000-2F4A-4E3F-8330-E9279DB341ED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1926,11 +1455,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="488541904"/>
-        <c:axId val="467678216"/>
+        <c:axId val="452560024"/>
+        <c:axId val="452560352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="488541904"/>
+        <c:axId val="452560024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1973,7 +1502,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467678216"/>
+        <c:crossAx val="452560352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1981,7 +1510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467678216"/>
+        <c:axId val="452560352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +1561,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488541904"/>
+        <c:crossAx val="452560024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2044,8 +1573,65 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2059,7 +1645,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2074,7 +1660,237 @@
           <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Variation SDES : dist/ trips weekday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparaison 18'!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>CSP : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CSP : 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CSP : 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CSP : 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CSP : 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CSP :7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CSP : 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparaison 18'!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-9.2005176118190701E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1823268073247766E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1338240789321468E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.1030740091495543E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.3933339211650102E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.722256698693041E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.1170495002901357E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2476789225340732</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0B8-48DD-A758-4759BCF331E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="175827120"/>
+        <c:axId val="175828760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="175827120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175828760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="175828760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="175827120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2134,36 +1950,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Variatio</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t>n 2018 : dist/trip weekday</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2205,9 +1991,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Comparaison 18'!$A$12</c:f>
+              <c:f>'Comparaison 18'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Variation travel dist/y (long trips) SDES</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2223,25 +2012,31 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
+              <c:f>'Comparaison 18'!$B$1:$I$1</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>CSP : 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CSP : 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>CSP : 3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>CSP : 4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>CSP : 5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>CSP : 6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>CSP :7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>CSP : 8</c:v>
                 </c:pt>
               </c:strCache>
@@ -2249,99 +2044,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Comparaison 18'!$B$12:$G$12</c:f>
+              <c:f>'Comparaison 18'!$B$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.25552330981314952</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.132274415490785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.096158245282298E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1719774439955644E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5003420718676699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3405120916419886E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.7832294883411581E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.041803199833649E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CCC-4FAB-852A-4363D306180B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparaison 18'!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Variation SDES : dist/ trips weekday</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CSP : 3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CSP : 4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CSP : 5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSP : 6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CSP :7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSP : 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparaison 18'!$B$13:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.1338240789321468E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.1030740091495543E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.3933339211650102E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.722256698693041E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.1170495002901357E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2476789225340732</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1CCC-4FAB-852A-4363D306180B}"/>
+              <c16:uniqueId val="{00000000-740E-45EA-A6D2-4656EE12EB22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2355,11 +2091,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="492262152"/>
-        <c:axId val="492262480"/>
+        <c:axId val="133365912"/>
+        <c:axId val="133362960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="492262152"/>
+        <c:axId val="133365912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2138,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492262480"/>
+        <c:crossAx val="133362960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2410,7 +2146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="492262480"/>
+        <c:axId val="133362960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2461,7 +2197,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="492262152"/>
+        <c:crossAx val="133365912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2473,466 +2209,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR"/>
-              <a:t>Variation</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> 2018 : travel dist/year </a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparaison 18'!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CSP : 3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CSP : 4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CSP : 5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSP : 6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CSP :7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSP : 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparaison 18'!$B$18:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9763-4F4D-ADCA-E836504629F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Comparaison 18'!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>travel dist/y (long trips) SDES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Comparaison 18'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>CSP : 3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CSP : 4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CSP : 5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CSP : 6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CSP :7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CSP : 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Comparaison 18'!$B$19:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-2.096158245282298E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.1719774439955644E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5.5003420718676699E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3405120916419886E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6.7832294883411581E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.041803199833649E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9763-4F4D-ADCA-E836504629F0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="492281504"/>
-        <c:axId val="492283144"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="492281504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="492283144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="492283144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="492281504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3177,46 +2453,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5732,523 +4968,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>516256</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>428625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6263,8 +4996,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13594081" y="609600"/>
-          <a:ext cx="3808093" cy="1638300"/>
+          <a:off x="10414636" y="93345"/>
+          <a:ext cx="3796664" cy="2032635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6299,12 +5032,8 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>rectifications apportées</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> : </a:t>
+            <a:t>Hypothèses : </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6337,22 +5066,34 @@
             <a:t>utilisation de p_car</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" i="1" baseline="0"/>
+            <a:t>Remarques : résultats de voyages non présentés, car disponibles uniquement selon la CSP de référence dans l'enquête 2008</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" baseline="0"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>479107</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105727</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>655321</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6381,51 +5122,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graphique 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C893A8-F98C-4E26-8042-034641199168}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1531620</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6445,7 +5150,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6458,16 +5163,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>232554</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>306297</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>337596</xdr:rowOff>
+      <xdr:rowOff>263854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>636606</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>710348</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>395468</xdr:rowOff>
+      <xdr:rowOff>108366</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6482,8 +5187,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12058022" y="520862"/>
-          <a:ext cx="3567799" cy="1871239"/>
+          <a:off x="16517232" y="448209"/>
+          <a:ext cx="3550374" cy="1663480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6533,6 +5238,18 @@
             <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
             <a:t>calcul sur 990 individus  sdes </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>utilisation du mode p_car</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+            <a:t>catégorie "no_csp" non prise en compte</a:t>
+          </a:r>
           <a:endParaRPr lang="fr-FR" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -6541,23 +5258,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1745226</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>58994</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>611504</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>688258</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122904</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4">
+        <xdr:cNvPr id="3" name="Graphique 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEFD611-2073-4BB8-956B-6C80B7F27158}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C595D56E-704C-4AF1-88B0-5170418D5673}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6577,23 +5294,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>29079</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>278885</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>55306</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>176980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>659315</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>89021</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>694403</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>154857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Graphique 7">
+        <xdr:cNvPr id="4" name="Graphique 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A520EEBB-24BE-4F4E-8265-7AB7EF085AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D7D37F2-FB0B-4E3A-A73A-26029F9201D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6613,23 +5330,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>40066</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>182637</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>276532</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>103239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>354164</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>129048</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>46112</xdr:rowOff>
+      <xdr:rowOff>81116</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Graphique 8">
+        <xdr:cNvPr id="6" name="Graphique 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B197C5-4034-4752-BEA4-086B4A9BB04E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB73C9CE-C937-43B9-BC8E-0E6C521441E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6949,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655CE2B7-3B9A-45E2-A730-FF4E14DE1CB0}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7014,8 +5731,8 @@
       <c r="I2" s="1">
         <v>2.9834745845675701</v>
       </c>
-      <c r="J2" s="16" t="s">
-        <v>15</v>
+      <c r="J2" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -7047,7 +5764,7 @@
         <f>(2338*3.1+ 11808*3 + 3407*2.8)/(2338+11808+3407)</f>
         <v>2.9745000854554777</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -7085,14 +5802,14 @@
         <f>I2/I$3-1</f>
         <v>3.017145353592543E-3</v>
       </c>
-      <c r="J4" s="16"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J5" s="16"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>7.8240887471828202</v>
@@ -7118,7 +5835,7 @@
       <c r="I6" s="1">
         <v>8.2138636453465192</v>
       </c>
-      <c r="J6" s="16"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7149,250 +5866,99 @@
         <f>(2338*6.5+ 11808*6 + 3407*5.6)/(2338+11808+3407)</f>
         <v>5.9889591522816614</v>
       </c>
-      <c r="J7" s="16"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="11">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8">
         <f t="shared" ref="B8:I8" si="1">B6/B7-1</f>
         <v>7.1792979066139795E-2</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <f t="shared" si="1"/>
         <v>0.12569119754234515</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>-1.5655674405749997E-2</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>7.1708144765999959E-2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
         <v>4.7394991181365809E-2</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <f t="shared" si="1"/>
         <v>-1.6884724543849483E-2</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>7.3879784904144374E-2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <f t="shared" si="1"/>
         <v>0.3715010298938537</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J9" s="13"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J10" s="13"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1381.34</v>
-      </c>
-      <c r="C11">
-        <v>13716.27</v>
-      </c>
-      <c r="D11">
-        <v>14250.5</v>
-      </c>
-      <c r="E11">
-        <v>6431.48</v>
-      </c>
-      <c r="F11">
-        <v>4074.44</v>
-      </c>
-      <c r="G11">
-        <v>3499.73</v>
-      </c>
-      <c r="H11">
-        <v>3009.16</v>
-      </c>
-      <c r="I11">
-        <v>3309.68</v>
-      </c>
-      <c r="J11" s="16"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="7">
-        <v>4147</v>
-      </c>
-      <c r="C12" s="7">
-        <v>8351</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12330</v>
-      </c>
-      <c r="E12" s="7">
-        <v>7880</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4524</v>
-      </c>
-      <c r="G12" s="7">
-        <v>3270</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4461</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4247</v>
-      </c>
-      <c r="J12" s="16"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
-        <f>B11/B12-1</f>
-        <v>-0.66690619725102485</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" ref="C13:I13" si="2">C11/C12-1</f>
-        <v>0.64247036283079884</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>0.15575831305758303</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.18382233502538081</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>-9.9372236958443882E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="2"/>
-        <v>7.0253822629969376E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.32545169244563998</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.22070167176830713</v>
-      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="8" t="s">
-        <v>13</v>
-      </c>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
     </row>
-    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="5"/>
     </row>
-    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
-        <v>3.6</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3.8565466537648301</v>
-      </c>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
     </row>
-    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="10">
-        <v>7.4</v>
-      </c>
-      <c r="D20" s="5">
-        <v>13.623216427491499</v>
-      </c>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
     </row>
-    <row r="21" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" s="10">
-        <v>12.1</v>
-      </c>
-      <c r="D21" s="5">
-        <v>15.1967675063529</v>
-      </c>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="5"/>
     </row>
-    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="D22" s="5">
-        <v>8.9673868088427007</v>
-      </c>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
     </row>
-    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>5.3024653282433301</v>
-      </c>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="5"/>
     </row>
-    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" s="10">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D24" s="5">
-        <v>4.1685520931012396</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="C25" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="D25" s="5">
-        <v>4.6688328171086697</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>8</v>
-      </c>
-      <c r="C26" s="10">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D26" s="5">
-        <v>5.2333090841899397</v>
-      </c>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7410,406 +5976,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D27387-EB91-4065-A3EC-E947CD964524}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="80" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="3" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+    <row r="2" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <v>50</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="16" t="s">
-        <v>20</v>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="13" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1">
+        <v>5.1602053234463199</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0173953349465297</v>
+      </c>
+      <c r="D3" s="1">
         <v>3.7004827391456101</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>3.8828562089656802</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F3" s="1">
         <v>3.6482985376650601</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>3.50714159714417</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H3" s="1">
         <v>2.7209045948962798</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>2.9078412100937299</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="D4">
         <v>3.3</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>3.7</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>3.5</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>3.4</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>2.4</v>
       </c>
-      <c r="G4" s="6">
+      <c r="I4" s="6">
         <f>(3209*3.2+ 11936*2.8 + 2144*2.6)/(3209+11936+2144)</f>
         <v>2.8494418416334084</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="16"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:G6" si="0">B3/B$4 -1</f>
-        <v>0.1213584058017001</v>
+        <f t="shared" ref="B6:I6" si="0">B3/B$4 -1</f>
+        <v>0.12178376596659146</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>4.9420597017751255E-2</v>
+        <v>8.5782522958521401E-2</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>4.2371010761445671E-2</v>
+        <v>0.1213584058017001</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>3.151223445416762E-2</v>
+        <v>4.9420597017751255E-2</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0.13371024787344998</v>
+        <v>4.2371010761445671E-2</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
+        <v>3.151223445416762E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13371024787344998</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
         <v>2.0495020325399738E-2</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="16"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="7">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7">
         <v>12.6487542345271</v>
       </c>
-      <c r="C9" s="7">
+      <c r="E9" s="7">
         <v>12.1909247860328</v>
       </c>
-      <c r="D9" s="7">
+      <c r="F9" s="7">
         <v>9.9024358665222607</v>
       </c>
-      <c r="E9" s="7">
+      <c r="G9" s="7">
         <v>11.907773613139501</v>
       </c>
-      <c r="F9" s="7">
+      <c r="H9" s="7">
         <v>7.5344003173130103</v>
       </c>
-      <c r="G9" s="7">
+      <c r="I9" s="7">
         <v>9.3246001404702206</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7">
+        <v>5.8111668728435797</v>
+      </c>
+      <c r="C10" s="7">
+        <v>11.3558736219984</v>
+      </c>
+      <c r="D10" s="1">
         <v>11.848779124131401</v>
       </c>
-      <c r="C10" s="1">
+      <c r="E10" s="1">
         <v>11.219940340929501</v>
       </c>
-      <c r="D10" s="1">
+      <c r="F10" s="1">
         <v>8.6045999470951493</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>10.726940479650301</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>6.9496894854794</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>7.7895101460887597</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
+        <v>6.4</v>
+      </c>
+      <c r="C11">
+        <v>10.9</v>
+      </c>
+      <c r="D11">
         <v>11.8</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>11.7</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>11.5</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>7.1</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <f>(3209*6.7+ 11936*6.2 + 2144*5.8)/(3209+11936+2144)</f>
         <v>6.2432008791717273</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ref="B13:G13" si="1">B10/B11-1</f>
-        <v>4.1338240789321468E-3</v>
+        <f t="shared" ref="B13:I13" si="1">B10/B11-1</f>
+        <v>-9.2005176118190701E-2</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>-4.1030740091495543E-2</v>
+        <v>4.1823268073247766E-2</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>-4.3933339211650102E-2</v>
+        <v>4.1338240789321468E-3</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>-6.722256698693041E-2</v>
+        <v>-4.1030740091495543E-2</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>-2.1170495002901357E-2</v>
+        <v>-4.3933339211650102E-2</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="1"/>
+        <v>-6.722256698693041E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.1170495002901357E-2</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
         <v>0.2476789225340732</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7">
         <v>19519.5859698245</v>
       </c>
-      <c r="C15" s="7">
+      <c r="E15" s="7">
         <v>9362.2873560649296</v>
       </c>
-      <c r="D15" s="7">
+      <c r="F15" s="7">
         <v>5685.0074047890002</v>
       </c>
-      <c r="E15" s="7">
+      <c r="G15" s="7">
         <v>3319.4924567667799</v>
       </c>
-      <c r="F15" s="7">
+      <c r="H15" s="7">
         <v>4330.4741551331499</v>
       </c>
-      <c r="G15" s="7">
+      <c r="I15" s="7">
         <v>6869.8039510797098</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>21</v>
+      <c r="J15" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
+        <v>2876.6579308819901</v>
+      </c>
+      <c r="C16" s="5">
+        <v>12646.2326686373</v>
+      </c>
+      <c r="D16" s="5">
         <v>18710.403197744101</v>
       </c>
-      <c r="C16" s="5">
+      <c r="E16" s="5">
         <v>10237.594856576499</v>
       </c>
-      <c r="D16" s="5">
+      <c r="F16" s="5">
         <v>5834.4088804828898</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="5">
         <v>4562.3400290454001</v>
       </c>
-      <c r="F16" s="5">
+      <c r="H16" s="5">
         <v>4811.8496938118296</v>
       </c>
-      <c r="G16" s="5">
+      <c r="I16" s="5">
         <v>6594.3496598396296</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
+        <v>3864</v>
+      </c>
+      <c r="C17">
+        <v>14574</v>
+      </c>
+      <c r="D17" s="5">
         <v>19111</v>
       </c>
-      <c r="C17" s="5">
+      <c r="E17" s="5">
         <v>10359</v>
       </c>
-      <c r="D17" s="5">
+      <c r="F17" s="5">
         <v>6174</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="5">
         <v>4458</v>
       </c>
-      <c r="F17" s="5">
+      <c r="H17" s="5">
         <v>5162</v>
       </c>
-      <c r="G17" s="5">
+      <c r="I17" s="5">
         <f>(3209*6596+ 11936*6550 + 2144*4773)/(3209+11936+2144)</f>
         <v>6338.1731736942565</v>
       </c>
-      <c r="H17" s="16"/>
+      <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="16"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
-        <f>B16/B17-1</f>
+        <f t="shared" ref="B19:C19" si="2">B16/B17-1</f>
+        <v>-0.25552330981314952</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.132274415490785</v>
+      </c>
+      <c r="D19" s="2">
+        <f>D16/D17-1</f>
         <v>-2.096158245282298E-2</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" ref="C19:G19" si="2">C16/C17-1</f>
+      <c r="E19" s="2">
+        <f t="shared" ref="E19:I19" si="3">E16/E17-1</f>
         <v>-1.1719774439955644E-2</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="2"/>
+      <c r="F19" s="2">
+        <f t="shared" si="3"/>
         <v>-5.5003420718676699E-2</v>
       </c>
-      <c r="E19" s="2">
-        <f t="shared" si="2"/>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
         <v>2.3405120916419886E-2</v>
       </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
+      <c r="H19" s="2">
+        <f t="shared" si="3"/>
         <v>-6.7832294883411581E-2</v>
       </c>
-      <c r="G19" s="2">
-        <f t="shared" si="2"/>
+      <c r="I19" s="2">
+        <f t="shared" si="3"/>
         <v>4.041803199833649E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H2:H12"/>
-    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="J2:J12"/>
+    <mergeCell ref="J15:J18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H2:H12" r:id="rId1" display="référence: feuille 7" xr:uid="{0127559A-7101-4CE1-805C-928394CB1E2A}"/>
-    <hyperlink ref="H15:H18" r:id="rId2" display="référence: feuille 1" xr:uid="{6DCF3343-2233-4304-B8CB-20F9A073FD33}"/>
+    <hyperlink ref="J2:J12" r:id="rId1" display="référence: feuille 7" xr:uid="{0127559A-7101-4CE1-805C-928394CB1E2A}"/>
+    <hyperlink ref="J15:J18" r:id="rId2" display="référence: feuille 1" xr:uid="{6DCF3343-2233-4304-B8CB-20F9A073FD33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
